--- a/web/new sheet.xlsx
+++ b/web/new sheet.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +398,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
